--- a/Attacker_Data/attacker_reports_20251020.xlsx
+++ b/Attacker_Data/attacker_reports_20251020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,24 +436,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>_1761012629.txt</t>
+          <t>Server1_1761012995.txt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1761012629</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>attacker ip:</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>attacker logged in at</t>
-        </is>
-      </c>
+          <t>1761012995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -473,39 +465,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>honeypot1_1760987908.txt</t>
+          <t>_1761012629.txt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1760987908</t>
+          <t>1761012629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>attacker ip:</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-10-20 15:17:53.761</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-10-20 15:18:01.027</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>honeypot1</t>
-        </is>
-      </c>
+          <t>attacker logged in at</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -513,21 +493,21 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>honeypot1_1760987945.txt</t>
+          <t>honeypot1_1760987908.txt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1760987945</t>
+          <t>1760987908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,37 +551,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>honeypot1_1760988022.txt</t>
+          <t>honeypot1_1760987945.txt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1760988022</t>
+          <t>1760987945</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>attacker logged in at</t>
+          <t>10.175.90.186</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>attacker left at</t>
+          <t>2025-10-20 15:17:53.761</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>container ID:</t>
+          <t>2025-10-20 15:18:01.027</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0 minutes and 0 seconds</t>
+          <t>honeypot1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -611,26 +591,26 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>honeypot1_1760988171.txt</t>
+          <t>honeypot1_1760988022.txt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1760988171</t>
+          <t>1760988022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -669,37 +649,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>honeypot1_1760988526.txt</t>
+          <t>honeypot1_1760988171.txt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1760988526</t>
+          <t>1760988171</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.175.90.186</t>
+          <t>attacker logged in at</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-20 15:28:16.651</t>
+          <t>attacker left at</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-10-20 15:28:24.020</t>
+          <t>container ID:</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>honeypot1</t>
+          <t>0 minutes and 0 seconds</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -709,21 +689,21 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>honeypot1_1760988538.txt</t>
+          <t>honeypot1_1760988526.txt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1760988538</t>
+          <t>1760988526</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -767,12 +747,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>honeypot1_1760988611.txt</t>
+          <t>honeypot1_1760988538.txt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1760988611</t>
+          <t>1760988538</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,22 +762,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>attacker logged in at</t>
+          <t>10.175.90.186</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>attacker left at</t>
+          <t>2025-10-20 15:28:16.651</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>container ID:</t>
+          <t>2025-10-20 15:28:24.020</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0 minutes and 0 seconds</t>
+          <t>honeypot1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -807,46 +787,46 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>honeypot1_1760989350.txt</t>
+          <t>honeypot1_1760988611.txt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1760989350</t>
+          <t>1760988611</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>attacker ip: 10.175.90.186</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.175.90.186</t>
+          <t>attacker logged in at</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-20 15:41:59.083</t>
+          <t>attacker left at</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-10-20 15:42:06.886</t>
+          <t>container ID:</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>honeypot1</t>
+          <t>0 minutes and 0 seconds</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -865,17 +845,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>honeypot1_1760989361.txt</t>
+          <t>honeypot1_1760989350.txt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1760989361</t>
+          <t>1760989350</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>attacker ip: 10.175.90.186</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -914,35 +894,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>honeypot1_1760989437.txt</t>
+          <t>honeypot1_1760989361.txt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1760989437</t>
+          <t>1760989361</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>attacker ip:</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>attacker logged in at</t>
+          <t>10.175.90.186</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>attacker left at</t>
+          <t>2025-10-20 15:41:59.083</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>container ID:</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>2025-10-20 15:42:06.886</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>honeypot1</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -959,17 +943,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>honeypot1_1760991326.txt</t>
+          <t>honeypot1_1760989437.txt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1760991326</t>
+          <t>1760989437</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>attacker ip:</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -987,11 +971,7 @@
           <t>container ID:</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0 minutes and 0 seconds</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1008,12 +988,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>server1_1761012769.txt</t>
+          <t>honeypot1_1760991326.txt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1761012769</t>
+          <t>1760991326</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1003,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.173.150.42</t>
+          <t>attacker logged in at</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1033,10 +1013,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>container ID:</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>0 minutes and 0 seconds</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1053,12 +1037,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>server1_1761012804.txt</t>
+          <t>server1_1761012769.txt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1761012804</t>
+          <t>1761012769</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1098,12 +1082,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>server1_1761012895.txt</t>
+          <t>server1_1761012804.txt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1761012895</t>
+          <t>1761012804</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1118,12 +1102,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>attacker left at 2025-10-20 21:47:15.240</t>
+          <t>attacker left at</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-10-20 21:47:15.240</t>
+          <t>0 minutes and 0 seconds</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1131,13 +1115,148 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>server1_1761012895.txt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1761012895</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>attacker left at 2025-10-20 21:47:15.240</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-10-20 21:47:15.240</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
         <v>1307</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>15</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M17" t="n">
         <v>78435</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>server1_1761014725.txt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1761014725</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>attacker left at 2025-10-20 22:45:01.823 - [Debug] [SHELL] Attacker Keystroke: t</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-10-20 22:45:01.823 - [Debug] [SHELL] Attacker Keystroke: t</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1365</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>81901</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>server1_1761015059.txt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1761015059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>attacker left at 2025-10-20 22:50:32.434 - [Debug] [SHELL] Keystroke buffer: 116,111,117,99,104,32,121,117,13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-10-20 22:50:32.434 - [Debug] [SHELL] Keystroke buffer: 116,111,117,99,104,32,121,117,13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1370</v>
+      </c>
+      <c r="L19" t="n">
+        <v>32</v>
+      </c>
+      <c r="M19" t="n">
+        <v>82232</v>
       </c>
     </row>
   </sheetData>

--- a/Attacker_Data/attacker_reports_20251020.xlsx
+++ b/Attacker_Data/attacker_reports_20251020.xlsx
@@ -436,16 +436,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Server1_1761012995.txt</t>
+          <t>_1761012629.txt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1761012995</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>1761012629</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>attacker ip:</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>attacker logged in at</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -465,27 +473,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>_1761012629.txt</t>
+          <t>honeypot1_1760987908.txt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1761012629</t>
+          <t>1760987908</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>attacker ip:</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>attacker logged in at</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-10-20 15:17:53.761</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-10-20 15:18:01.027</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>honeypot1</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -493,21 +513,21 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>honeypot1_1760987908.txt</t>
+          <t>honeypot1_1760987945.txt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1760987908</t>
+          <t>1760987945</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,37 +571,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>honeypot1_1760987945.txt</t>
+          <t>honeypot1_1760988022.txt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1760987945</t>
+          <t>1760988022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.175.90.186</t>
+          <t>attacker logged in at</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-20 15:17:53.761</t>
+          <t>attacker left at</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-10-20 15:18:01.027</t>
+          <t>container ID:</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>honeypot1</t>
+          <t>0 minutes and 0 seconds</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -591,26 +611,26 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>honeypot1_1760988022.txt</t>
+          <t>honeypot1_1760988171.txt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1760988022</t>
+          <t>1760988171</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -649,37 +669,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>honeypot1_1760988171.txt</t>
+          <t>honeypot1_1760988526.txt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1760988171</t>
+          <t>1760988526</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>attacker logged in at</t>
+          <t>10.175.90.186</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>attacker left at</t>
+          <t>2025-10-20 15:28:16.651</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>container ID:</t>
+          <t>2025-10-20 15:28:24.020</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0 minutes and 0 seconds</t>
+          <t>honeypot1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -689,21 +709,21 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>honeypot1_1760988526.txt</t>
+          <t>honeypot1_1760988538.txt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1760988526</t>
+          <t>1760988538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,12 +767,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>honeypot1_1760988538.txt</t>
+          <t>honeypot1_1760988611.txt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1760988538</t>
+          <t>1760988611</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -762,22 +782,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.175.90.186</t>
+          <t>attacker logged in at</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-20 15:28:16.651</t>
+          <t>attacker left at</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-10-20 15:28:24.020</t>
+          <t>container ID:</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>honeypot1</t>
+          <t>0 minutes and 0 seconds</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -787,46 +807,46 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>honeypot1_1760988611.txt</t>
+          <t>honeypot1_1760989350.txt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1760988611</t>
+          <t>1760989350</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>attacker ip: 10.175.90.186</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>attacker logged in at</t>
+          <t>10.175.90.186</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>attacker left at</t>
+          <t>2025-10-20 15:41:59.083</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>container ID:</t>
+          <t>2025-10-20 15:42:06.886</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0 minutes and 0 seconds</t>
+          <t>honeypot1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -845,17 +865,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>honeypot1_1760989350.txt</t>
+          <t>honeypot1_1760989361.txt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1760989350</t>
+          <t>1760989361</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>attacker ip: 10.175.90.186</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -894,39 +914,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>honeypot1_1760989361.txt</t>
+          <t>honeypot1_1760989437.txt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1760989361</t>
+          <t>1760989437</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>attacker ip:</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.175.90.186</t>
+          <t>attacker logged in at</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-10-20 15:41:59.083</t>
+          <t>attacker left at</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-10-20 15:42:06.886</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>honeypot1</t>
-        </is>
-      </c>
+          <t>container ID:</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -943,17 +959,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>honeypot1_1760989437.txt</t>
+          <t>honeypot1_1760991326.txt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1760989437</t>
+          <t>1760991326</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>attacker ip:</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -971,7 +987,11 @@
           <t>container ID:</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0 minutes and 0 seconds</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -988,12 +1008,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>honeypot1_1760991326.txt</t>
+          <t>server1_1761012769.txt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1760991326</t>
+          <t>1761012769</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1003,7 +1023,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>attacker logged in at</t>
+          <t>10.173.150.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1013,14 +1033,10 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>container ID:</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
           <t>0 minutes and 0 seconds</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1037,12 +1053,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>server1_1761012769.txt</t>
+          <t>server1_1761012804.txt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1761012769</t>
+          <t>1761012804</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1082,12 +1098,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>server1_1761012804.txt</t>
+          <t>server1_1761012895.txt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1761012804</t>
+          <t>1761012895</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1102,12 +1118,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>attacker left at</t>
+          <t>attacker left at 2025-10-20 21:47:15.240</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0 minutes and 0 seconds</t>
+          <t>2025-10-20 21:47:15.240</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1115,58 +1131,42 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>78435</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>server1_1761012895.txt</t>
+          <t>server1_1761012995.txt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1761012895</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10.173.150.42</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>attacker left at 2025-10-20 21:47:15.240</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-10-20 21:47:15.240</t>
-        </is>
-      </c>
+          <t>1761012995</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>1307</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>78435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
